--- a/data/georgia_census/racha/ambrolauri/population_total.xlsx
+++ b/data/georgia_census/racha/ambrolauri/population_total.xlsx
@@ -1351,13 +1351,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F48FEF24-74FA-4747-B944-68F6648EA56B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33F40C00-9F0F-4B64-86C2-28D9F753CC4C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5601A4DB-F55D-4FDA-BDF6-EE83241B61F6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E562918-C512-4D84-A473-79F57AB8615D}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6A8B203-8DC3-4921-9C9F-938E1A3DB762}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9909308-9D6A-4089-9B5C-C6325933DFCA}"/>
 </file>